--- a/tables/table_04_v2.xlsx
+++ b/tables/table_04_v2.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="table_04_v2.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="table_04" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -179,7 +179,7 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -188,25 +188,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -499,24 +499,24 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,79 +532,79 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>0.74</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>0.74</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
         <v>0.74</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.74</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>0.74</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>0.74</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>163</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>264</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>143</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,79 +620,79 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>0.24</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>0.36</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="B8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.24</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <v>0.71</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>0.36</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>0.71</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="8">
         <v>163</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <v>264</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>143</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,79 +708,79 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>0.92</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
-      <c r="B13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>0.92</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="8">
         <v>163</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="8">
         <v>264</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="8">
         <v>143</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
@@ -796,79 +796,79 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
         <v>0.42</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>0.89</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="B18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.42</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
         <v>0.42</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>0.89</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>0.42</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="8">
         <v>163</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="8">
         <v>264</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="8">
         <v>143</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
         <v>0</v>
       </c>
@@ -884,73 +884,73 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>0.72</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>0.9</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
         <v>0.72</v>
       </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
         <v>0.72</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>0.9</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>0.72</v>
       </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="8">
         <v>163</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="8">
         <v>264</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="8">
         <v>143</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
